--- a/pred_ohlcv/54_21/2019-10-19 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 RNT ohlcv.xlsx
@@ -4422,7 +4422,7 @@
         <v>-968790.8027793652</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1103839.670879365</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1103829.670879365</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1182680.230879365</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1178018.764079365</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1177015.564179365</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1182632.164179365</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1203915.280579366</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>731410.7992282608</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>551412.030413975</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>551412.030413975</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>515152.030413975</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>515152.030413975</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>568041.820113975</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>897937.0358755137</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1303907.855875514</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>802429.3555755137</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>727141.6834755137</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>751728.5047755137</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>743203.5047755137</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>740978.2758755137</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>674895.7117755137</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>654723.8617755137</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>654723.8617755137</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 RNT ohlcv.xlsx
@@ -4422,7 +4422,7 @@
         <v>-968790.8027793652</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1103839.670879365</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1103829.670879365</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1106026.030879365</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1182680.230879365</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1177015.564179365</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1182632.164179365</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1203915.280579366</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-931689.8284473887</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>731410.7992282608</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>551412.030413975</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>551412.030413975</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>515152.030413975</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>515152.030413975</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>568041.820113975</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1252285.299875514</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>897937.0358755137</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1303907.855875514</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>802429.3555755137</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>730830.5671755137</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>727141.6834755137</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>751728.5047755137</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>743203.5047755137</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>740978.2758755137</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
